--- a/datamining/final_data/topic8_candidates.xlsx
+++ b/datamining/final_data/topic8_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.41779</v>
+        <v>1.757047833333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.21937</v>
+        <v>0.877518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.63932</v>
+        <v>0.8758723333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.46359</v>
+        <v>0.6716785000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.14865</v>
+        <v>0.6600795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.18761</v>
+        <v>0.6306259999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.34122</v>
+        <v>0.6190193333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.54381</v>
+        <v>0.5846658333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07828</v>
+        <v>0.5784563333333332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.10826</v>
+        <v>0.54942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.97018</v>
+        <v>0.5245143333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06401</v>
+        <v>0.5217413333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.26147</v>
+        <v>0.4820268333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.78339</v>
+        <v>0.4704591666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2764</v>
+        <v>0.4634726666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.35237</v>
+        <v>0.4356655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.33288</v>
+        <v>0.4328118333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.49388</v>
+        <v>0.4275745</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3096</v>
+        <v>0.4253068333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.62357</v>
+        <v>0.4245385</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.23608</v>
+        <v>0.4226828333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.79437</v>
+        <v>0.4214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.18994</v>
+        <v>0.4194158333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.12171</v>
+        <v>0.409807</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.31421</v>
+        <v>0.3853186666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.35866</v>
+        <v>0.3786803333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.15009</v>
+        <v>0.353313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0813</v>
+        <v>0.3311945</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.96031</v>
+        <v>0.3232418333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.16445</v>
+        <v>0.3130205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.18387</v>
+        <v>0.3095103333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.70764</v>
+        <v>0.303522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.10718</v>
+        <v>0.3008348333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.39134</v>
+        <v>0.2905048333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.11571</v>
+        <v>0.2896075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.00735</v>
+        <v>0.2821136666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.16372</v>
+        <v>0.280122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.13493</v>
+        <v>0.2725235</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.17197</v>
+        <v>0.2651346666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05491</v>
+        <v>0.2578203333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.16412</v>
+        <v>0.2518963333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.39539</v>
+        <v>0.2501885</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05576</v>
+        <v>0.250155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.49678</v>
+        <v>0.2433958333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.41834</v>
+        <v>0.2432456666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.37051</v>
+        <v>0.2401573333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.20846</v>
+        <v>0.2184146666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.15503</v>
+        <v>0.2176398333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10907</v>
+        <v>0.2096826666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.10285</v>
+        <v>0.2083913333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.73554</v>
+        <v>0.20444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.27792</v>
+        <v>0.2000983333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.32412</v>
+        <v>0.1983815</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.20344</v>
+        <v>0.196676</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.29567</v>
+        <v>0.192134</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.56998</v>
+        <v>0.1905186666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.30537</v>
+        <v>0.1835836666666666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.34627</v>
+        <v>0.1796675</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.21274</v>
+        <v>0.1752533333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5411</v>
+        <v>0.1679616666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3092</v>
+        <v>0.1677555</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6826</v>
+        <v>0.1600078333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.09257</v>
+        <v>0.1575421666666666</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1207</v>
+        <v>0.1539333333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.19559</v>
+        <v>0.1517108333333334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3406</v>
+        <v>0.1370845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.07635</v>
+        <v>0.1322876666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.25533</v>
+        <v>0.131962</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.18168</v>
+        <v>0.1315195</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.11303</v>
+        <v>0.1308403333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.14619</v>
+        <v>0.1287905</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.40466</v>
+        <v>0.1284403333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.61871</v>
+        <v>0.1262535</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4963</v>
+        <v>0.1255481666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.14792</v>
+        <v>0.1221533333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.21866</v>
+        <v>0.121918</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.26342</v>
+        <v>0.1135655</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.69436</v>
+        <v>0.1117076666666666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.49011</v>
+        <v>0.1034923333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.13905</v>
+        <v>0.102822</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2333</v>
+        <v>0.1014056666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.04729</v>
+        <v>0.1000081666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.51952</v>
+        <v>0.09515666666666668</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.22828</v>
+        <v>0.09241300000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.58447</v>
+        <v>0.08896883333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.20372</v>
+        <v>0.08823883333333334</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.77956</v>
+        <v>0.08701916666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.11897</v>
+        <v>0.07865666666666668</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.23412</v>
+        <v>0.07656499999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.29292</v>
+        <v>0.06836316666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.35808</v>
+        <v>0.06320483333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.52284</v>
+        <v>0.05666616666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.47927</v>
+        <v>0.0540415</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.15466</v>
+        <v>0.05396666666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.51293</v>
+        <v>0.04405633333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07645</v>
+        <v>0.04270483333333332</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.52166</v>
+        <v>0.04108533333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.16728</v>
+        <v>0.03292383333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.17012</v>
+        <v>0.01872133333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.36341</v>
+        <v>0.001754833333333334</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic8_candidates.xlsx
+++ b/datamining/final_data/topic8_candidates.xlsx
@@ -442,1001 +442,1001 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.757047833333333</v>
+        <v>1.011933833333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.877518</v>
+        <v>0.8846183333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8758723333333334</v>
+        <v>0.8797698333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6716785000000001</v>
+        <v>0.7136568333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6600795</v>
+        <v>0.7121685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6306259999999999</v>
+        <v>0.6849391666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6190193333333334</v>
+        <v>0.6443246666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5846658333333333</v>
+        <v>0.6195453333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5784563333333332</v>
+        <v>0.5962415000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.54942</v>
+        <v>0.5645694999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5245143333333333</v>
+        <v>0.5429418333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5217413333333333</v>
+        <v>0.5282626666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4820268333333334</v>
+        <v>0.5147641666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4704591666666667</v>
+        <v>0.5070205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4634726666666667</v>
+        <v>0.4943021666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4356655</v>
+        <v>0.4859815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4328118333333333</v>
+        <v>0.4754248333333334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4275745</v>
+        <v>0.4687835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4253068333333333</v>
+        <v>0.4571236666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4245385</v>
+        <v>0.4478273333333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4226828333333333</v>
+        <v>0.4419325</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4214</v>
+        <v>0.4363478333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4194158333333333</v>
+        <v>0.4331588333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.409807</v>
+        <v>0.4251381666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3853186666666666</v>
+        <v>0.4245385</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3786803333333333</v>
+        <v>0.4245385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.353313</v>
+        <v>0.422879</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3311945</v>
+        <v>0.407503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3232418333333333</v>
+        <v>0.3910295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3130205</v>
+        <v>0.390577</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3095103333333333</v>
+        <v>0.3855838333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.303522</v>
+        <v>0.3835473333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3008348333333333</v>
+        <v>0.3786803333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2905048333333333</v>
+        <v>0.376095</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2896075</v>
+        <v>0.3663181666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2821136666666667</v>
+        <v>0.3587963333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.280122</v>
+        <v>0.3551608333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2725235</v>
+        <v>0.3467786666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2651346666666667</v>
+        <v>0.3412745</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2578203333333333</v>
+        <v>0.3331373333333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2518963333333333</v>
+        <v>0.3291176666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2501885</v>
+        <v>0.3262595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.250155</v>
+        <v>0.3140444999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2433958333333334</v>
+        <v>0.3117036666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2432456666666666</v>
+        <v>0.3105033333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2401573333333333</v>
+        <v>0.2938155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2184146666666666</v>
+        <v>0.2727713333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2176398333333333</v>
+        <v>0.261598</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2096826666666667</v>
+        <v>0.2533476666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2083913333333333</v>
+        <v>0.2515865</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.20444</v>
+        <v>0.2466711666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2000983333333333</v>
+        <v>0.2463841666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1983815</v>
+        <v>0.2413686666666666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.196676</v>
+        <v>0.233222</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.192134</v>
+        <v>0.2281353333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1905186666666667</v>
+        <v>0.2270003333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1835836666666666</v>
+        <v>0.222122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1796675</v>
+        <v>0.2185315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1752533333333333</v>
+        <v>0.215229</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1679616666666667</v>
+        <v>0.2079865</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1677555</v>
+        <v>0.2042723333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1600078333333333</v>
+        <v>0.1974525</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1575421666666666</v>
+        <v>0.1941868333333334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1539333333333333</v>
+        <v>0.194141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1517108333333334</v>
+        <v>0.1905186666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1370845</v>
+        <v>0.1882711666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1322876666666667</v>
+        <v>0.1816488333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.131962</v>
+        <v>0.1767488333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1315195</v>
+        <v>0.175148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1308403333333333</v>
+        <v>0.1744073333333334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1287905</v>
+        <v>0.1651088333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1284403333333333</v>
+        <v>0.1650991666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1262535</v>
+        <v>0.1575401666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1255481666666667</v>
+        <v>0.1548171666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1221533333333333</v>
+        <v>0.1544806666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.121918</v>
+        <v>0.152699</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1135655</v>
+        <v>0.1413143333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1117076666666666</v>
+        <v>0.1400941666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1034923333333333</v>
+        <v>0.136322</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.102822</v>
+        <v>0.1341203333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1014056666666667</v>
+        <v>0.1273498333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1000081666666667</v>
+        <v>0.119923</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09515666666666668</v>
+        <v>0.08427133333333334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.09241300000000001</v>
+        <v>0.07705866666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08896883333333333</v>
+        <v>0.07378433333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08823883333333334</v>
+        <v>0.07132033333333332</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08701916666666666</v>
+        <v>0.06529266666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07865666666666668</v>
+        <v>0.06467349999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07656499999999999</v>
+        <v>0.063194</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06836316666666667</v>
+        <v>0.05343783333333332</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06320483333333334</v>
+        <v>0.04859083333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05666616666666666</v>
+        <v>0.04405633333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0540415</v>
+        <v>0.041888</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05396666666666667</v>
+        <v>0.02450683333333332</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04405633333333333</v>
+        <v>0.01897649999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04270483333333332</v>
+        <v>0.01029983333333333</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04108533333333333</v>
+        <v>0.0005958333333333232</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03292383333333333</v>
+        <v>-0.002454666666666661</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.01872133333333333</v>
+        <v>-0.002454666666666661</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.001754833333333334</v>
+        <v>-0.02835016666666666</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic8_candidates.xlsx
+++ b/datamining/final_data/topic8_candidates.xlsx
@@ -452,21 +452,21 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8846183333333333</v>
+        <v>0.8797698333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8797698333333334</v>
+        <v>0.7405465</v>
       </c>
     </row>
     <row r="5">
@@ -482,511 +482,511 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7121685</v>
+        <v>0.6049103333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6849391666666667</v>
+        <v>0.5645694999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6443246666666667</v>
+        <v>0.5429418333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6195453333333333</v>
+        <v>0.528958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5962415000000001</v>
+        <v>0.5282626666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5645694999999999</v>
+        <v>0.5253658333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5429418333333333</v>
+        <v>0.5147641666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5282626666666667</v>
+        <v>0.5073536666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5147641666666667</v>
+        <v>0.4943021666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5070205</v>
+        <v>0.4859815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4943021666666667</v>
+        <v>0.4478273333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4859815</v>
+        <v>0.4419325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4754248333333334</v>
+        <v>0.4419325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4687835</v>
+        <v>0.43617</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4571236666666667</v>
+        <v>0.4267328333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4478273333333334</v>
+        <v>0.4251381666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4419325</v>
+        <v>0.4245385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4363478333333333</v>
+        <v>0.4245385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4331588333333334</v>
+        <v>0.422879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4251381666666666</v>
+        <v>0.4142576666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4245385</v>
+        <v>0.3938941666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4245385</v>
+        <v>0.3910295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.422879</v>
+        <v>0.390577</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.407503</v>
+        <v>0.3835473333333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3910295</v>
+        <v>0.3824598333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.390577</v>
+        <v>0.3786803333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3855838333333333</v>
+        <v>0.376095</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3835473333333334</v>
+        <v>0.3752478333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3786803333333333</v>
+        <v>0.3607238333333334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.376095</v>
+        <v>0.3551608333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3663181666666667</v>
+        <v>0.3412745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3587963333333333</v>
+        <v>0.3262595</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3551608333333333</v>
+        <v>0.3117036666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3467786666666667</v>
+        <v>0.2977951666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3412745</v>
+        <v>0.2938155</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3331373333333334</v>
+        <v>0.2758621666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3291176666666666</v>
+        <v>0.2727713333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3262595</v>
+        <v>0.261598</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3140444999999999</v>
+        <v>0.2515865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3117036666666667</v>
+        <v>0.2495115</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3105033333333334</v>
+        <v>0.2466711666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2938155</v>
+        <v>0.2463841666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2727713333333333</v>
+        <v>0.2459601666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.261598</v>
+        <v>0.2413686666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2533476666666666</v>
+        <v>0.2369751666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2515865</v>
+        <v>0.2335588333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2466711666666667</v>
+        <v>0.233222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2463841666666667</v>
+        <v>0.2281456666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2413686666666666</v>
+        <v>0.222122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.233222</v>
+        <v>0.2185315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2281353333333333</v>
+        <v>0.215229</v>
       </c>
     </row>
     <row r="57">
@@ -996,423 +996,423 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2270003333333333</v>
+        <v>0.2128741666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.222122</v>
+        <v>0.2079865</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2185315</v>
+        <v>0.2042723333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.215229</v>
+        <v>0.1905186666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2079865</v>
+        <v>0.1882711666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2042723333333333</v>
+        <v>0.17725</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1974525</v>
+        <v>0.1767488333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1941868333333334</v>
+        <v>0.175148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.194141</v>
+        <v>0.1744073333333334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1905186666666667</v>
+        <v>0.1650991666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1882711666666667</v>
+        <v>0.1605466666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1816488333333333</v>
+        <v>0.1575401666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1767488333333333</v>
+        <v>0.1548171666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.175148</v>
+        <v>0.1544806666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1744073333333334</v>
+        <v>0.1544806666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1651088333333333</v>
+        <v>0.1501156666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1650991666666667</v>
+        <v>0.1413143333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1575401666666667</v>
+        <v>0.1407598333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1548171666666667</v>
+        <v>0.1400941666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1544806666666667</v>
+        <v>0.136322</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.152699</v>
+        <v>0.1341203333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1413143333333333</v>
+        <v>0.1332476666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1400941666666667</v>
+        <v>0.1273498333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.136322</v>
+        <v>0.119923</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1341203333333333</v>
+        <v>0.08248883333333332</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1273498333333333</v>
+        <v>0.07705866666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.119923</v>
+        <v>0.073342</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08427133333333334</v>
+        <v>0.07132033333333332</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07705866666666666</v>
+        <v>0.06529266666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07378433333333333</v>
+        <v>0.06467349999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07132033333333332</v>
+        <v>0.063194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06529266666666667</v>
+        <v>0.05343783333333332</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.06467349999999999</v>
+        <v>0.04859083333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.063194</v>
+        <v>0.04405633333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05343783333333332</v>
+        <v>0.02450683333333332</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04859083333333333</v>
+        <v>0.01897649999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04405633333333333</v>
+        <v>0.01803666666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.041888</v>
+        <v>0.01029983333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02450683333333332</v>
+        <v>0.001941999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.01897649999999999</v>
+        <v>0.0009134999999999907</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.01029983333333333</v>
+        <v>0.0005958333333333232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0005958333333333232</v>
+        <v>-0.002454666666666661</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1422,11 +1422,11 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.002454666666666661</v>
+        <v>-0.007349000000000001</v>
       </c>
     </row>
     <row r="101">

--- a/datamining/final_data/topic8_candidates.xlsx
+++ b/datamining/final_data/topic8_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.011933833333333</v>
+        <v>0.9871847916666666</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8797698333333334</v>
+        <v>0.8565397916666667</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7405465</v>
+        <v>0.7176581249999999</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7136568333333334</v>
+        <v>0.6839835416666668</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6049103333333333</v>
+        <v>0.5810529166666667</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5645694999999999</v>
+        <v>0.540409375</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5429418333333333</v>
+        <v>0.5133347916666666</v>
       </c>
     </row>
     <row r="9">
@@ -516,47 +516,47 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.528958</v>
+        <v>0.5115525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5282626666666667</v>
+        <v>0.5063722916666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5253658333333333</v>
+        <v>0.5003320833333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5147641666666667</v>
+        <v>0.4994558333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5073536666666667</v>
+        <v>0.4932077083333334</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4943021666666667</v>
+        <v>0.4659202083333333</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4859815</v>
+        <v>0.464946875</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4478273333333334</v>
+        <v>0.4405791666666667</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4419325</v>
+        <v>0.417263125</v>
       </c>
     </row>
     <row r="18">
@@ -606,67 +606,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4419325</v>
+        <v>0.417263125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('있', '알', '수')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.43617</v>
+        <v>0.41228125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4267328333333333</v>
+        <v>0.4091075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4251381666666666</v>
+        <v>0.4065710416666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4245385</v>
+        <v>0.4001452083333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4245385</v>
+        <v>0.394720625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.422879</v>
+        <v>0.394720625</v>
       </c>
     </row>
     <row r="25">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4142576666666666</v>
+        <v>0.3885420833333333</v>
       </c>
     </row>
     <row r="26">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3938941666666667</v>
+        <v>0.3715127083333333</v>
       </c>
     </row>
     <row r="27">
@@ -696,27 +696,27 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3910295</v>
+        <v>0.3630893749999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.390577</v>
+        <v>0.36180375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3835473333333334</v>
+        <v>0.36170875</v>
       </c>
     </row>
     <row r="30">
@@ -726,37 +726,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3824598333333333</v>
+        <v>0.3603597916666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3786803333333333</v>
+        <v>0.3595491666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.376095</v>
+        <v>0.3534747916666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3752478333333333</v>
+        <v>0.3498804166666666</v>
       </c>
     </row>
     <row r="34">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3607238333333334</v>
+        <v>0.3396222916666667</v>
       </c>
     </row>
     <row r="35">
@@ -776,27 +776,27 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3551608333333333</v>
+        <v>0.3389885416666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3412745</v>
+        <v>0.318941875</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3262595</v>
+        <v>0.314830625</v>
       </c>
     </row>
     <row r="38">
@@ -806,27 +806,27 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3117036666666667</v>
+        <v>0.2946995833333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2977951666666666</v>
+        <v>0.287129375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2938155</v>
+        <v>0.2773614583333333</v>
       </c>
     </row>
     <row r="41">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2758621666666666</v>
+        <v>0.2609152083333333</v>
       </c>
     </row>
     <row r="42">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2727713333333333</v>
+        <v>0.2508141666666666</v>
       </c>
     </row>
     <row r="43">
@@ -856,97 +856,97 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.261598</v>
+        <v>0.2498725</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2515865</v>
+        <v>0.241646875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2495115</v>
+        <v>0.2372252083333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2466711666666667</v>
+        <v>0.235460625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2463841666666667</v>
+        <v>0.2338664583333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2459601666666666</v>
+        <v>0.22846</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2413686666666666</v>
+        <v>0.2264135416666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2369751666666667</v>
+        <v>0.2253408333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2335588333333333</v>
+        <v>0.2218427083333334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.233222</v>
+        <v>0.2125789583333333</v>
       </c>
     </row>
     <row r="53">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2281456666666667</v>
+        <v>0.2117420833333333</v>
       </c>
     </row>
     <row r="54">
@@ -966,27 +966,27 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.222122</v>
+        <v>0.207495</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2185315</v>
+        <v>0.193623125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.215229</v>
+        <v>0.1927854166666667</v>
       </c>
     </row>
     <row r="57">
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2128741666666667</v>
+        <v>0.1914902083333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2079865</v>
+        <v>0.18839375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2042723333333333</v>
+        <v>0.188069375</v>
       </c>
     </row>
     <row r="60">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1905186666666667</v>
+        <v>0.1833058333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1882711666666667</v>
+        <v>0.1767039583333333</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.17725</v>
+        <v>0.16859</v>
       </c>
     </row>
     <row r="63">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1767488333333333</v>
+        <v>0.1665335416666667</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.175148</v>
+        <v>0.1633225</v>
       </c>
     </row>
     <row r="65">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1744073333333334</v>
+        <v>0.1611966666666667</v>
       </c>
     </row>
     <row r="66">
@@ -1086,137 +1086,137 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1650991666666667</v>
+        <v>0.1546839583333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1605466666666667</v>
+        <v>0.1500202083333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1575401666666667</v>
+        <v>0.1482508333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1548171666666667</v>
+        <v>0.1482508333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1544806666666667</v>
+        <v>0.1455264583333334</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1544806666666667</v>
+        <v>0.1436320833333334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1501156666666667</v>
+        <v>0.1386258333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1413143333333333</v>
+        <v>0.1301297916666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1407598333333333</v>
+        <v>0.1300452083333334</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1400941666666667</v>
+        <v>0.12951</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.136322</v>
+        <v>0.1286795833333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1341203333333333</v>
+        <v>0.1285504166666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1332476666666667</v>
+        <v>0.1217172916666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1273498333333333</v>
+        <v>0.1185729166666667</v>
       </c>
     </row>
     <row r="80">
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.119923</v>
+        <v>0.11032625</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08248883333333332</v>
+        <v>0.07317833333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.07705866666666666</v>
+        <v>0.06975354166666665</v>
       </c>
     </row>
     <row r="83">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.073342</v>
+        <v>0.06464500000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.07132033333333332</v>
+        <v>0.06284791666666667</v>
       </c>
     </row>
     <row r="85">
@@ -1276,27 +1276,27 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.06529266666666667</v>
+        <v>0.05991833333333334</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06467349999999999</v>
+        <v>0.05942</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.063194</v>
+        <v>0.058321875</v>
       </c>
     </row>
     <row r="88">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.05343783333333332</v>
+        <v>0.04916479166666667</v>
       </c>
     </row>
     <row r="89">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04859083333333333</v>
+        <v>0.04192854166666667</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04405633333333333</v>
+        <v>0.03906791666666666</v>
       </c>
     </row>
     <row r="91">
@@ -1336,27 +1336,27 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02450683333333332</v>
+        <v>0.01938354166666666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.01897649999999999</v>
+        <v>0.01414083333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01803666666666666</v>
+        <v>0.013920625</v>
       </c>
     </row>
     <row r="94">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01029983333333333</v>
+        <v>0.004399791666666663</v>
       </c>
     </row>
     <row r="95">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.001941999999999999</v>
+        <v>-0.004285000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0009134999999999907</v>
+        <v>-0.01169562500000001</v>
       </c>
     </row>
     <row r="97">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0005958333333333232</v>
+        <v>-0.01696770833333335</v>
       </c>
     </row>
     <row r="98">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.002454666666666661</v>
+        <v>-0.02019583333333333</v>
       </c>
     </row>
     <row r="99">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.002454666666666661</v>
+        <v>-0.02019583333333333</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.007349000000000001</v>
+        <v>-0.02294624999999999</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.02835016666666666</v>
+        <v>-0.04744770833333332</v>
       </c>
     </row>
   </sheetData>
